--- a/streamlit/dados_tratados/homegate_comprar_geneve_20240815_updated.xlsx
+++ b/streamlit/dados_tratados/homegate_comprar_geneve_20240815_updated.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:54</t>
+          <t>2024-08-15 23:22:26</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:55</t>
+          <t>2024-08-15 23:22:27</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:56</t>
+          <t>2024-08-15 23:22:28</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:57</t>
+          <t>2024-08-15 23:22:29</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:58</t>
+          <t>2024-08-15 23:22:30</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-08-15 21:37:59</t>
+          <t>2024-08-15 23:22:31</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:00</t>
+          <t>2024-08-15 23:22:32</t>
         </is>
       </c>
     </row>
@@ -852,34 +852,34 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:01</t>
+          <t>2024-08-15 23:22:33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LOFT MODERNE ET SPACIEUX</t>
+          <t>Vieille Ville - Rue des Granges</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>4575000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>220</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1217 Meyrin</t>
+          <t>Rue des Granges, 1204 Genève</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -894,39 +894,39 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001337579</t>
+          <t>https://www.homegate.ch/buy/4001380333</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:02</t>
+          <t>2024-08-15 23:22:35</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vieille Ville - Rue des Granges</t>
+          <t>Bel appartement traversant Champel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4575000</t>
+          <t>2950000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>179</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rue des Granges, 1204 Genève</t>
+          <t>Avenue de Champel 55, 1206 Genève</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -941,39 +941,39 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001380333</t>
+          <t>https://www.homegate.ch/buy/4001364526</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:03</t>
+          <t>2024-08-15 23:22:36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bel appartement traversant Champel</t>
+          <t>Magnifique appartement neuf en rez-de-jardin au centre de Vésenaz</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2950000</t>
+          <t>3190000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Avenue de Champel 55, 1206 Genève</t>
+          <t>6 Route de Vandoeuvres, 1222 Vésenaz</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -988,39 +988,39 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001364526</t>
+          <t>https://www.homegate.ch/buy/4001358835</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:05</t>
+          <t>2024-08-15 23:22:37</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Magnifique appartement neuf en rez-de-jardin au centre de Vésenaz</t>
+          <t>Au coeur d'un quartier résidentiel!</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3190000</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6 Route de Vandoeuvres, 1222 Vésenaz</t>
+          <t>1223 Cologny</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1035,19 +1035,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001358835</t>
+          <t>https://www.homegate.ch/buy/4001356168</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:06</t>
+          <t>2024-08-15 23:22:38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Au coeur d'un quartier résidentiel!</t>
+          <t>Prenez de la hauteur!</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1223 Cologny</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1082,39 +1082,39 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001356168</t>
+          <t>https://www.homegate.ch/buy/4001356163</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:07</t>
+          <t>2024-08-15 23:22:39</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Prenez de la hauteur!</t>
+          <t>Exclusivité : appartement lumineux - dernier étage - quiétude et verdure</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>118</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Chemin du Daru, 1228 Plan-les-Ouates</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1129,39 +1129,39 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001356163</t>
+          <t>https://www.homegate.ch/buy/4001317683</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:08</t>
+          <t>2024-08-15 23:22:40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Exclusivité : appartement lumineux - dernier étage - quiétude et verdure</t>
+          <t>Appartement - Résidence située au bord du Lac - Lovée dans un vaste parc privatif de 1.4 hectares</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1350000</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Chemin du Daru, 1228 Plan-les-Ouates</t>
+          <t>1290 Versoix</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1176,39 +1176,39 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001317683</t>
+          <t>https://www.homegate.ch/buy/4001315558</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:09</t>
+          <t>2024-08-15 23:22:41</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Appartement - Résidence située au bord du Lac - Lovée dans un vaste parc privatif de 1.4 hectares</t>
+          <t>Studio à Vendre Champel/Florissant</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1790000</t>
+          <t>640000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1290 Versoix</t>
+          <t>Chemin Rieu, 1208 Genève</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1223,39 +1223,39 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001315558</t>
+          <t>https://www.homegate.ch/buy/4001270528</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:10</t>
+          <t>2024-08-15 23:22:42</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Studio à Vendre Champel/Florissant</t>
+          <t>Bel appartement en duplex avec balcon et véranda</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>640000</t>
+          <t>1250000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>130</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chemin Rieu, 1208 Genève</t>
+          <t>Route d'Ambilly 36, 1226 Thônex</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1270,39 +1270,39 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001270528</t>
+          <t>https://www.homegate.ch/buy/4001129344</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:11</t>
+          <t>2024-08-15 23:22:43</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bel appartement en duplex avec balcon et véranda</t>
+          <t>Un magnifique duplex en attique</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1250000</t>
+          <t>7900000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>521</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Route d'Ambilly 36, 1226 Thônex</t>
+          <t>Rue de la Cloche 6, 1201 Genève</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1317,39 +1317,39 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001129344</t>
+          <t>https://www.homegate.ch/buy/3002187300</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:12</t>
+          <t>2024-08-15 23:22:44</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Un magnifique duplex en attique</t>
+          <t>Tour Invictus : Appartement de 3.5 pièces à Fribourg avec vue panoramique sur les Préalpes !</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7900000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>72</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rue de la Cloche 6, 1201 Genève</t>
+          <t>Route de la Glâne 19, 1202 Genève</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1364,39 +1364,39 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/3002187300</t>
+          <t>https://www.homegate.ch/buy/4001319841</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:13</t>
+          <t>2024-08-15 23:22:45</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tour Invictus : Appartement de 3.5 pièces à Fribourg avec vue panoramique sur les Préalpes !</t>
+          <t>Entre le parc Bertrand et les HUG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>1670000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Route de la Glâne 19, 1202 Genève</t>
+          <t>Genève, 1206 Genève</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001319841</t>
+          <t>https://www.homegate.ch/buy/4001374783</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-08-15 21:38:14</t>
+          <t>2024-08-15 23:22:46</t>
         </is>
       </c>
     </row>
